--- a/data/trans_dic/P15-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03378595240622252</v>
+        <v>0.03392115757205402</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05999796731643356</v>
+        <v>0.05930673673589341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05242668806774019</v>
+        <v>0.05328380817483701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05989258308324023</v>
+        <v>0.0599019399349632</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03161396853714309</v>
+        <v>0.03238755777579969</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05852177722450537</v>
+        <v>0.05927740441982469</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0427911767345863</v>
+        <v>0.04166057764042198</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06221896053823746</v>
+        <v>0.06210929459049341</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0376275963959733</v>
+        <v>0.03691756495861966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06337325814943033</v>
+        <v>0.06336772830389045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05052930297899198</v>
+        <v>0.0512123485432294</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06558333131845745</v>
+        <v>0.06666179286802748</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07006147071825437</v>
+        <v>0.06977159801084191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09406150270878562</v>
+        <v>0.09323787510436413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08403416735924377</v>
+        <v>0.082214476915818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1124505870980366</v>
+        <v>0.1120663939004682</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05838873989799793</v>
+        <v>0.05854764813464139</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0881649993120307</v>
+        <v>0.09025633265527679</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06880331283306354</v>
+        <v>0.06956449092984969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1001410654426017</v>
+        <v>0.09987746118085972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05915347444965127</v>
+        <v>0.05895767497062357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08520368455194544</v>
+        <v>0.08538490845895025</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07108210169100085</v>
+        <v>0.07116276860622853</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09934488143156665</v>
+        <v>0.09858324052083131</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0585660935868826</v>
+        <v>0.05783320948642675</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08100619245546366</v>
+        <v>0.08022458095295544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04175124893724171</v>
+        <v>0.04041693611220575</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03892823951082441</v>
+        <v>0.03769938187800843</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04102961212892977</v>
+        <v>0.04042508072534514</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06130482388294763</v>
+        <v>0.06173847145789171</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03644909177368163</v>
+        <v>0.03620829900429454</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05395907710688482</v>
+        <v>0.05439476989400454</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05369603601394299</v>
+        <v>0.05380331828522234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07575925168450157</v>
+        <v>0.07551472647714978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04210908827393198</v>
+        <v>0.04261258062831903</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04964344512985339</v>
+        <v>0.04986444212632372</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09071692882749342</v>
+        <v>0.08980224018315058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1216659953734692</v>
+        <v>0.1182135892456204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07233331473077421</v>
+        <v>0.07203133817408695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06952409498400232</v>
+        <v>0.07105090306786836</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06904577878115772</v>
+        <v>0.06951316622484267</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0952958971513567</v>
+        <v>0.09578956897831535</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06599099661289386</v>
+        <v>0.06618409794713853</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0779402307153205</v>
+        <v>0.07908581833923488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0751952710828946</v>
+        <v>0.07373842843371824</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1008651762817569</v>
+        <v>0.1004866118527947</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06397461452178306</v>
+        <v>0.06324848403996244</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06901557786450409</v>
+        <v>0.06879580086221605</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.06138872642844755</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06227051439604796</v>
+        <v>0.06227051439604797</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06539450409141623</v>
+        <v>0.06584633230373037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05909747290544878</v>
+        <v>0.06075536263029942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04323304099122594</v>
+        <v>0.0428459441887017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05428949210121464</v>
+        <v>0.05410537953985407</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03876980636373365</v>
+        <v>0.03848445095625789</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05768230706794024</v>
+        <v>0.05305217760744389</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04793753189672179</v>
+        <v>0.04879682266093409</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04326535133654594</v>
+        <v>0.04207711234413541</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05743561308401145</v>
+        <v>0.05634451022977096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06201081063145376</v>
+        <v>0.06267057882724072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04853763826890842</v>
+        <v>0.04981936635261344</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0522455767989828</v>
+        <v>0.05232850436780112</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09673992962888933</v>
+        <v>0.09911224515892202</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0955296453014268</v>
+        <v>0.09428179412827604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07512698517343716</v>
+        <v>0.07389498279428382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09268406729605951</v>
+        <v>0.09289278025239762</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06634702305332901</v>
+        <v>0.06701881111604695</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09464883818630528</v>
+        <v>0.08958280466545798</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08603076639859678</v>
+        <v>0.08611747783907893</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06617768221447784</v>
+        <v>0.06450498063800537</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07872751502463597</v>
+        <v>0.07879329830714656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08760279444200075</v>
+        <v>0.08741251679655371</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07427127914825624</v>
+        <v>0.07576968333480108</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07452434614574814</v>
+        <v>0.07381805825069294</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.047912183735852</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05665925318317746</v>
+        <v>0.05665925318317745</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06910247815789627</v>
+        <v>0.06895846460113164</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06365246965800464</v>
+        <v>0.06344896352342275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0329429406349365</v>
+        <v>0.03375756863903449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04220881903659405</v>
+        <v>0.04084252272858583</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04379081682106361</v>
+        <v>0.04276634949365139</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04097002758367682</v>
+        <v>0.039178019116636</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03024982300765858</v>
+        <v>0.02753749769364342</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04335503974065763</v>
+        <v>0.04449369242175522</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06472324597340326</v>
+        <v>0.06542234906107819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05839994938338493</v>
+        <v>0.0597524865538969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03530121935023665</v>
+        <v>0.03596486381622657</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04677481241707893</v>
+        <v>0.04645612328535258</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1277530290272694</v>
+        <v>0.1301172736682014</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1204492706296639</v>
+        <v>0.1201296367578219</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07161759752050066</v>
+        <v>0.07129647384090347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07617261326623379</v>
+        <v>0.07446219273930046</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0994177020799895</v>
+        <v>0.09718761043654182</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09153085145684328</v>
+        <v>0.08711866178312164</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07063342404227042</v>
+        <v>0.07156131702067982</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07313134095096917</v>
+        <v>0.07461757647743661</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1027068925289785</v>
+        <v>0.1056672382558881</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09424640695609808</v>
+        <v>0.09530781112941417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0633849635819517</v>
+        <v>0.06310498169367604</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06960362693944368</v>
+        <v>0.06802259897710933</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05898444482190096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06348882532941623</v>
+        <v>0.06348882532941622</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05181102954455382</v>
@@ -1241,7 +1241,7 @@
         <v>0.05642847045016023</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06271587530701467</v>
+        <v>0.06271587530701468</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06669669412685593</v>
+        <v>0.06532299159528072</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07469217000968199</v>
+        <v>0.07482422562910579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05078415367490274</v>
+        <v>0.05104525753787891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05363487798474313</v>
+        <v>0.05502144494812329</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04467025093875289</v>
+        <v>0.04488107333915611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06408086372375599</v>
+        <v>0.0640594774990062</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04681972314015945</v>
+        <v>0.04621580845684083</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05542178450675608</v>
+        <v>0.05557765209228419</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05738764369449229</v>
+        <v>0.0573693316074958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07166807919698301</v>
+        <v>0.07150715246620096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05100147540902826</v>
+        <v>0.0508108159630695</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05726672613787596</v>
+        <v>0.05753477598416858</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08514183109256866</v>
+        <v>0.08411187949432923</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09432817385137354</v>
+        <v>0.09392884362676532</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06757066427914166</v>
+        <v>0.06786657792589276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07296220591670886</v>
+        <v>0.07293985558887268</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05983429786988457</v>
+        <v>0.05986498592700557</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08141497287304968</v>
+        <v>0.08173942160735018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06241929127775488</v>
+        <v>0.06259776131876126</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07005101325665164</v>
+        <v>0.06932097806945625</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06959797587004908</v>
+        <v>0.06928201287900208</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08503215443195841</v>
+        <v>0.08496142361439314</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06217366740508195</v>
+        <v>0.06305187973593679</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06886163623818593</v>
+        <v>0.06920902121897235</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19736</v>
+        <v>19815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>62634</v>
+        <v>61912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59137</v>
+        <v>60104</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29871</v>
+        <v>29875</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29159</v>
+        <v>29872</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65540</v>
+        <v>66386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>53898</v>
+        <v>52474</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38798</v>
+        <v>38730</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56685</v>
+        <v>55615</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>137131</v>
+        <v>137119</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>120642</v>
+        <v>122272</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>73605</v>
+        <v>74816</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40926</v>
+        <v>40756</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>98194</v>
+        <v>97334</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>94790</v>
+        <v>92738</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56083</v>
+        <v>55892</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53854</v>
+        <v>54000</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>98738</v>
+        <v>101081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>86662</v>
+        <v>87621</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>62446</v>
+        <v>62282</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>89113</v>
+        <v>88818</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>184369</v>
+        <v>184761</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>169713</v>
+        <v>169905</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>111497</v>
+        <v>110642</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63128</v>
+        <v>62338</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>79149</v>
+        <v>78385</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37945</v>
+        <v>36732</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37376</v>
+        <v>36197</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>43390</v>
+        <v>42751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>67084</v>
+        <v>67558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36685</v>
+        <v>36443</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60210</v>
+        <v>60696</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>114664</v>
+        <v>114893</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>156923</v>
+        <v>156416</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>80652</v>
+        <v>81616</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>103059</v>
+        <v>103518</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>97783</v>
+        <v>96797</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>118877</v>
+        <v>115503</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65738</v>
+        <v>65464</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66753</v>
+        <v>68219</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73019</v>
+        <v>73513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>104279</v>
+        <v>104819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>66418</v>
+        <v>66613</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86970</v>
+        <v>88248</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160574</v>
+        <v>157463</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>208926</v>
+        <v>208141</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>122531</v>
+        <v>121140</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>143275</v>
+        <v>142819</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>73346</v>
+        <v>73853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52308</v>
+        <v>53775</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35614</v>
+        <v>35295</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56813</v>
+        <v>56620</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38535</v>
+        <v>38251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50518</v>
+        <v>46463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36963</v>
+        <v>37625</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45327</v>
+        <v>44082</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>121507</v>
+        <v>119199</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>109196</v>
+        <v>110357</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>77409</v>
+        <v>79453</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>109409</v>
+        <v>109582</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108503</v>
+        <v>111164</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84555</v>
+        <v>83450</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61887</v>
+        <v>60872</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96992</v>
+        <v>97210</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65945</v>
+        <v>66613</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82893</v>
+        <v>78456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66335</v>
+        <v>66402</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69331</v>
+        <v>67578</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>166551</v>
+        <v>166690</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>154261</v>
+        <v>153926</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>118449</v>
+        <v>120839</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>156063</v>
+        <v>154584</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30903</v>
+        <v>30838</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32019</v>
+        <v>31916</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16692</v>
+        <v>17105</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41193</v>
+        <v>39859</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14940</v>
+        <v>14590</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18549</v>
+        <v>17737</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14813</v>
+        <v>13485</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39394</v>
+        <v>40429</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>51025</v>
+        <v>51576</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55816</v>
+        <v>57109</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35174</v>
+        <v>35835</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>88150</v>
+        <v>87550</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57131</v>
+        <v>58188</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>60589</v>
+        <v>60428</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36289</v>
+        <v>36126</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>74339</v>
+        <v>72670</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33917</v>
+        <v>33156</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41439</v>
+        <v>39442</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34589</v>
+        <v>35043</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66450</v>
+        <v>67801</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80970</v>
+        <v>83304</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>90077</v>
+        <v>91091</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>63157</v>
+        <v>62878</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>131173</v>
+        <v>128193</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>215486</v>
+        <v>211047</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>254636</v>
+        <v>255087</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>171005</v>
+        <v>171884</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>186718</v>
+        <v>191545</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>148080</v>
+        <v>148779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>227021</v>
+        <v>226945</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>165123</v>
+        <v>162994</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>204823</v>
+        <v>205399</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>375648</v>
+        <v>375528</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>498227</v>
+        <v>497108</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>351608</v>
+        <v>350294</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>411003</v>
+        <v>412927</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>275079</v>
+        <v>271751</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>321578</v>
+        <v>320217</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>227529</v>
+        <v>228526</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>254002</v>
+        <v>253924</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>198349</v>
+        <v>198451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>288431</v>
+        <v>289580</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>220140</v>
+        <v>220769</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>258888</v>
+        <v>256190</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>455574</v>
+        <v>453506</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>591132</v>
+        <v>590641</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>428630</v>
+        <v>434684</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>494220</v>
+        <v>496713</v>
       </c>
     </row>
     <row r="24">
